--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8916525-4014-49F7-9059-15DED64F1195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12DFCA-502C-4B76-AF1C-2323A08784E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31965" yWindow="-9165" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67200" yWindow="-11310" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12DFCA-502C-4B76-AF1C-2323A08784E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A71EB3-D5E7-4AC7-9B13-E8F8500D8102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="-11310" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A71EB3-D5E7-4AC7-9B13-E8F8500D8102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739F3CA0-651F-4CC9-91A1-A5AB3DA6AB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739F3CA0-651F-4CC9-91A1-A5AB3DA6AB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06050E-656C-4A0E-AF2B-86CC199AC1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06050E-656C-4A0E-AF2B-86CC199AC1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C06B1-F480-443D-8144-A85E619F40CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C06B1-F480-443D-8144-A85E619F40CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA61F9-FB62-450A-A5EA-867065B87AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35190" yWindow="-9750" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA61F9-FB62-450A-A5EA-867065B87AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6807410-AC68-4D04-9AF7-A997BECF7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6807410-AC68-4D04-9AF7-A997BECF7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D7617-81B8-42C1-96F5-41A9351645D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D7617-81B8-42C1-96F5-41A9351645D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D18FEC-9B2A-40F6-ABCB-5477621CCF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D18FEC-9B2A-40F6-ABCB-5477621CCF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5835103-9754-48BF-B9CF-2EFEDB7CC232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5835103-9754-48BF-B9CF-2EFEDB7CC232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C140C3-41FF-4F0D-8498-3FA5E3C6A4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C140C3-41FF-4F0D-8498-3FA5E3C6A4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EBE126-C534-455F-B8DE-EDEE1BAFF9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS6/Market Data/CS6_market_data_2045.xlsx
+++ b/data/CS6/Market Data/CS6_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS6\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EBE126-C534-455F-B8DE-EDEE1BAFF9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE228B0F-2C60-40B6-BC26-12D1ED0BBA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="-11490" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
